--- a/Kichban/kichban.xlsx
+++ b/Kichban/kichban.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Nam\Desktop\water_level5\water_level_prediction\Kichban\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Nam\Desktop\water_level4\Kichban\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B25B491-D140-40A0-BAC2-3B9481A7CC25}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{00C5E199-8CF4-402F-B296-87CCE48A43D1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -425,7 +425,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:O5"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
       <selection activeCell="M5" sqref="M5"/>
     </sheetView>
   </sheetViews>
@@ -522,7 +522,7 @@
         <v>1.2</v>
       </c>
       <c r="M2">
-        <v>1000</v>
+        <v>300</v>
       </c>
       <c r="N2">
         <v>30</v>
@@ -566,7 +566,7 @@
         <v>1.2</v>
       </c>
       <c r="M3">
-        <v>1000</v>
+        <v>300</v>
       </c>
       <c r="N3">
         <v>30</v>
@@ -610,7 +610,7 @@
         <v>1.2</v>
       </c>
       <c r="M4">
-        <v>1000</v>
+        <v>300</v>
       </c>
       <c r="N4">
         <v>30</v>
@@ -654,7 +654,7 @@
         <v>1.2</v>
       </c>
       <c r="M5">
-        <v>1000</v>
+        <v>300</v>
       </c>
       <c r="N5">
         <v>30</v>
